--- a/runs/run101/NotionalETEOutput101.xlsx
+++ b/runs/run101/NotionalETEOutput101.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_197.MISSILE_ANGERMAX3_197</t>
+    <t>MISSILE_HIGHWIND1_39.MISSILE_HIGHWIND1_39</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1571.119617903701</v>
+        <v>-1570.323400851554</v>
       </c>
       <c r="J2">
-        <v>2064.118937623303</v>
+        <v>2081.096366984641</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1433.977347139461</v>
+        <v>-1424.907567781424</v>
       </c>
       <c r="J3">
-        <v>2023.552814291779</v>
+        <v>1945.773687692885</v>
       </c>
       <c r="K3">
-        <v>308.3178485939832</v>
+        <v>297.6738421880988</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1465.640880440739</v>
+        <v>-1485.747885230276</v>
       </c>
       <c r="J4">
-        <v>1859.419493527241</v>
+        <v>1958.681996313881</v>
       </c>
       <c r="K4">
-        <v>588.1887211113279</v>
+        <v>590.7716391303477</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1372.7433065794</v>
+        <v>-1360.339908047273</v>
       </c>
       <c r="J5">
-        <v>1812.820582396516</v>
+        <v>1825.12391282729</v>
       </c>
       <c r="K5">
-        <v>865.730022903454</v>
+        <v>904.5875088123454</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1312.463809860638</v>
+        <v>-1341.754256446916</v>
       </c>
       <c r="J6">
-        <v>1821.43260432951</v>
+        <v>1851.113543351493</v>
       </c>
       <c r="K6">
-        <v>1119.291586736945</v>
+        <v>1155.345340264053</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1374.487870239972</v>
+        <v>-1398.415835030582</v>
       </c>
       <c r="J7">
-        <v>1688.072944262888</v>
+        <v>1825.762331454038</v>
       </c>
       <c r="K7">
-        <v>1314.843417570967</v>
+        <v>1329.712285279556</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1325.697274790332</v>
+        <v>-1348.367643189555</v>
       </c>
       <c r="J8">
-        <v>1646.515683162761</v>
+        <v>1748.406876919456</v>
       </c>
       <c r="K8">
-        <v>1591.161347205572</v>
+        <v>1536.53272508294</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.31778579174447</v>
+        <v>-99.55083485184862</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1292.196331815547</v>
+        <v>-1270.660374923987</v>
       </c>
       <c r="J9">
-        <v>1597.903291001141</v>
+        <v>1613.780813346098</v>
       </c>
       <c r="K9">
-        <v>1752.390742593834</v>
+        <v>1814.562248097085</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.9956996221325</v>
+        <v>217.1702292832521</v>
       </c>
       <c r="G10">
-        <v>-84.19718961896804</v>
+        <v>-87.26229263572017</v>
       </c>
       <c r="H10">
-        <v>855.0451367672855</v>
+        <v>863.285832605678</v>
       </c>
       <c r="I10">
-        <v>-1254.144248836785</v>
+        <v>-1191.026536659848</v>
       </c>
       <c r="J10">
-        <v>1533.129528066939</v>
+        <v>1687.508832709714</v>
       </c>
       <c r="K10">
-        <v>2002.094560131224</v>
+        <v>1966.827901315921</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.5888478589729</v>
+        <v>170.7086115044225</v>
       </c>
       <c r="G11">
-        <v>-68.90230027827715</v>
+        <v>-65.86503192792681</v>
       </c>
       <c r="H11">
-        <v>1071.999120591509</v>
+        <v>1045.350762179758</v>
       </c>
       <c r="I11">
-        <v>-1229.986131212808</v>
+        <v>-1225.743715848215</v>
       </c>
       <c r="J11">
-        <v>1519.456211606964</v>
+        <v>1516.397417318965</v>
       </c>
       <c r="K11">
-        <v>2275.042751578201</v>
+        <v>2105.226893318783</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.3549366240761</v>
+        <v>137.0748172278793</v>
       </c>
       <c r="G12">
-        <v>-48.26005642775155</v>
+        <v>-51.65773748134467</v>
       </c>
       <c r="H12">
-        <v>1231.112386228322</v>
+        <v>1142.914025096967</v>
       </c>
       <c r="I12">
-        <v>-1132.703611860228</v>
+        <v>-1184.520097434972</v>
       </c>
       <c r="J12">
-        <v>1485.942143732534</v>
+        <v>1573.122946293408</v>
       </c>
       <c r="K12">
-        <v>2392.523322514469</v>
+        <v>2322.865741092337</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.8529621174309</v>
+        <v>126.4894182101841</v>
       </c>
       <c r="G13">
-        <v>-35.47910284831844</v>
+        <v>-33.7333640446969</v>
       </c>
       <c r="H13">
-        <v>1302.63954584783</v>
+        <v>1265.507985184813</v>
       </c>
       <c r="I13">
-        <v>-1162.915027249457</v>
+        <v>-1167.323414079354</v>
       </c>
       <c r="J13">
-        <v>1392.903917098595</v>
+        <v>1401.205630870453</v>
       </c>
       <c r="K13">
-        <v>2415.963009030954</v>
+        <v>2491.657899445032</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.5990513544191</v>
+        <v>107.3521983212478</v>
       </c>
       <c r="G14">
-        <v>-17.93739978750955</v>
+        <v>-17.76932906906634</v>
       </c>
       <c r="H14">
-        <v>1300.970289705802</v>
+        <v>1281.575656214962</v>
       </c>
       <c r="I14">
-        <v>-1105.016271782772</v>
+        <v>-1126.171353046687</v>
       </c>
       <c r="J14">
-        <v>1383.145334189914</v>
+        <v>1377.962732703285</v>
       </c>
       <c r="K14">
-        <v>2677.101965363802</v>
+        <v>2610.230980361605</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.04195586548947</v>
+        <v>103.2871241543653</v>
       </c>
       <c r="G15">
-        <v>-0.8952052405893238</v>
+        <v>-0.9198089498704833</v>
       </c>
       <c r="H15">
-        <v>1433.919261677417</v>
+        <v>1410.289380557442</v>
       </c>
       <c r="I15">
-        <v>-1028.888889610719</v>
+        <v>-1053.636584708452</v>
       </c>
       <c r="J15">
-        <v>1375.132304038265</v>
+        <v>1322.780201406017</v>
       </c>
       <c r="K15">
-        <v>2798.602969381784</v>
+        <v>2719.187796473651</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.82939663433025</v>
+        <v>96.07636319318451</v>
       </c>
       <c r="G16">
-        <v>16.25179019083641</v>
+        <v>15.9343059958217</v>
       </c>
       <c r="H16">
-        <v>1482.334660711579</v>
+        <v>1430.018190492412</v>
       </c>
       <c r="I16">
-        <v>-1041.085779329138</v>
+        <v>-998.5042793181241</v>
       </c>
       <c r="J16">
-        <v>1320.976438584979</v>
+        <v>1320.746478504178</v>
       </c>
       <c r="K16">
-        <v>2874.697792976322</v>
+        <v>2820.691745238629</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.36511453349704</v>
+        <v>84.13959272287836</v>
       </c>
       <c r="G17">
-        <v>33.46375663296169</v>
+        <v>33.08377074361255</v>
       </c>
       <c r="H17">
-        <v>1465.530672906908</v>
+        <v>1519.678321371626</v>
       </c>
       <c r="I17">
-        <v>-939.7555992288386</v>
+        <v>-983.4661837835395</v>
       </c>
       <c r="J17">
-        <v>1301.493055974213</v>
+        <v>1270.731862328035</v>
       </c>
       <c r="K17">
-        <v>3054.996882229984</v>
+        <v>3020.287860676075</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.1411848875095</v>
+        <v>83.93028967350133</v>
       </c>
       <c r="G18">
-        <v>47.55930370732757</v>
+        <v>48.72328002070848</v>
       </c>
       <c r="H18">
-        <v>1526.506164562355</v>
+        <v>1508.254865250655</v>
       </c>
       <c r="I18">
-        <v>-896.6523065109785</v>
+        <v>-904.7151058815003</v>
       </c>
       <c r="J18">
-        <v>1168.316088777932</v>
+        <v>1256.167476771611</v>
       </c>
       <c r="K18">
-        <v>3145.557744765999</v>
+        <v>3099.946961524109</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.89477837969002</v>
+        <v>79.54448972141869</v>
       </c>
       <c r="G19">
-        <v>68.1421241074587</v>
+        <v>64.73878773265704</v>
       </c>
       <c r="H19">
-        <v>1569.259974893867</v>
+        <v>1544.62050540328</v>
       </c>
       <c r="I19">
-        <v>-918.9053288060528</v>
+        <v>-861.3594366036824</v>
       </c>
       <c r="J19">
-        <v>1145.371484458666</v>
+        <v>1116.335788495762</v>
       </c>
       <c r="K19">
-        <v>3031.293440165066</v>
+        <v>3078.546584719935</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.80567155977293</v>
+        <v>76.49113842054884</v>
       </c>
       <c r="G20">
-        <v>80.44503958395653</v>
+        <v>79.33722200341977</v>
       </c>
       <c r="H20">
-        <v>1545.412571571473</v>
+        <v>1563.438071179657</v>
       </c>
       <c r="I20">
-        <v>-859.7486291208919</v>
+        <v>-875.1716841051552</v>
       </c>
       <c r="J20">
-        <v>1080.446379477658</v>
+        <v>1165.919420954839</v>
       </c>
       <c r="K20">
-        <v>3142.026880241849</v>
+        <v>3038.494426830012</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.21047315547268</v>
+        <v>72.86123382157722</v>
       </c>
       <c r="G21">
-        <v>101.239559625215</v>
+        <v>100.006339844138</v>
       </c>
       <c r="H21">
-        <v>1573.180814402906</v>
+        <v>1613.131365375694</v>
       </c>
       <c r="I21">
-        <v>-758.0432018721677</v>
+        <v>-781.5214761225093</v>
       </c>
       <c r="J21">
-        <v>1027.362108031575</v>
+        <v>1059.299204112854</v>
       </c>
       <c r="K21">
-        <v>3245.965223257142</v>
+        <v>3057.135549050887</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.80878112721888</v>
+        <v>66.11200452767132</v>
       </c>
       <c r="G22">
-        <v>110.4612846696623</v>
+        <v>111.4527109929089</v>
       </c>
       <c r="H22">
-        <v>1654.971773247662</v>
+        <v>1678.903208343387</v>
       </c>
       <c r="I22">
-        <v>-709.2846855236056</v>
+        <v>-728.5907323643976</v>
       </c>
       <c r="J22">
-        <v>1055.118297894319</v>
+        <v>1048.938525950767</v>
       </c>
       <c r="K22">
-        <v>3225.095119504285</v>
+        <v>3284.793026889362</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.08824041858404</v>
+        <v>68.85100255746491</v>
       </c>
       <c r="G23">
-        <v>136.1818329088589</v>
+        <v>125.9208739119456</v>
       </c>
       <c r="H23">
-        <v>1674.633076847482</v>
+        <v>1626.806832220938</v>
       </c>
       <c r="I23">
-        <v>-677.6383530006505</v>
+        <v>-676.4759559942124</v>
       </c>
       <c r="J23">
-        <v>974.0038423819017</v>
+        <v>1023.358323638351</v>
       </c>
       <c r="K23">
-        <v>3089.851523143033</v>
+        <v>3295.66005099907</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.30603857749141</v>
+        <v>63.61251616288271</v>
       </c>
       <c r="G24">
-        <v>151.5669829051976</v>
+        <v>152.0991610138171</v>
       </c>
       <c r="H24">
-        <v>1723.357784844135</v>
+        <v>1572.695937025907</v>
       </c>
       <c r="I24">
-        <v>-634.2078703275473</v>
+        <v>-667.0397998053437</v>
       </c>
       <c r="J24">
-        <v>905.3176033395838</v>
+        <v>933.6348861250254</v>
       </c>
       <c r="K24">
-        <v>3263.660079589973</v>
+        <v>3148.152305469462</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.91080234349079</v>
+        <v>63.59173866097485</v>
       </c>
       <c r="G25">
-        <v>165.363643668222</v>
+        <v>166.8251278729114</v>
       </c>
       <c r="H25">
-        <v>1666.585819385617</v>
+        <v>1624.400197881053</v>
       </c>
       <c r="I25">
-        <v>-571.2186041823182</v>
+        <v>-604.1835039034086</v>
       </c>
       <c r="J25">
-        <v>882.9819834024826</v>
+        <v>865.9847843237212</v>
       </c>
       <c r="K25">
-        <v>3034.491759608848</v>
+        <v>3015.933563638089</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.49515414985659</v>
+        <v>59.40616852484262</v>
       </c>
       <c r="G26">
-        <v>173.1710098429048</v>
+        <v>186.7236502515132</v>
       </c>
       <c r="H26">
-        <v>1726.875015755984</v>
+        <v>1717.922884477596</v>
       </c>
       <c r="I26">
-        <v>-573.7748506271665</v>
+        <v>-526.5412581830344</v>
       </c>
       <c r="J26">
-        <v>826.4344874089395</v>
+        <v>819.3515031184837</v>
       </c>
       <c r="K26">
-        <v>3145.777315566695</v>
+        <v>3087.704410011196</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.09539940435815</v>
+        <v>56.64259173019061</v>
       </c>
       <c r="G27">
-        <v>200.8523986249627</v>
+        <v>188.084964498222</v>
       </c>
       <c r="H27">
-        <v>1783.374494405787</v>
+        <v>1751.91199640361</v>
       </c>
       <c r="I27">
-        <v>-494.1647493008665</v>
+        <v>-471.5772837450655</v>
       </c>
       <c r="J27">
-        <v>801.9654031356947</v>
+        <v>786.0155296061949</v>
       </c>
       <c r="K27">
-        <v>3126.29093293431</v>
+        <v>3086.437682770927</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.20814554521541</v>
+        <v>55.78041525834839</v>
       </c>
       <c r="G28">
-        <v>206.4491894132603</v>
+        <v>219.3865610110199</v>
       </c>
       <c r="H28">
-        <v>1748.491052055013</v>
+        <v>1726.119559762783</v>
       </c>
       <c r="I28">
-        <v>-453.3193757005273</v>
+        <v>-454.876290605535</v>
       </c>
       <c r="J28">
-        <v>741.2023524975692</v>
+        <v>764.6717121231172</v>
       </c>
       <c r="K28">
-        <v>3001.708952907913</v>
+        <v>2842.475562057012</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.50750337032139</v>
+        <v>53.6652768608141</v>
       </c>
       <c r="G29">
-        <v>225.7510428815206</v>
+        <v>226.2265180790974</v>
       </c>
       <c r="H29">
-        <v>1695.242485858736</v>
+        <v>1716.604405251824</v>
       </c>
       <c r="I29">
-        <v>-392.248564589398</v>
+        <v>-386.584010915736</v>
       </c>
       <c r="J29">
-        <v>669.8118294403034</v>
+        <v>666.6398818066027</v>
       </c>
       <c r="K29">
-        <v>2873.163548419607</v>
+        <v>2931.543717757814</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.58734012026413</v>
+        <v>55.87482833117488</v>
       </c>
       <c r="G30">
-        <v>253.0452063411428</v>
+        <v>252.7788276248032</v>
       </c>
       <c r="H30">
-        <v>1701.447312646569</v>
+        <v>1739.376458366268</v>
       </c>
       <c r="I30">
-        <v>-336.529884620889</v>
+        <v>-329.2435754621002</v>
       </c>
       <c r="J30">
-        <v>667.8159850100113</v>
+        <v>648.368400206789</v>
       </c>
       <c r="K30">
-        <v>2856.492537199127</v>
+        <v>2708.651942143939</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.97007292273</v>
+        <v>53.47860307101961</v>
       </c>
       <c r="G31">
-        <v>263.9795189388958</v>
+        <v>264.36302573161</v>
       </c>
       <c r="H31">
-        <v>1687.575667777889</v>
+        <v>1694.074342272753</v>
       </c>
       <c r="I31">
-        <v>-269.755399894338</v>
+        <v>-257.17997797907</v>
       </c>
       <c r="J31">
-        <v>582.851321126418</v>
+        <v>605.7720612237968</v>
       </c>
       <c r="K31">
-        <v>2635.181736755415</v>
+        <v>2576.905070961263</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.96626045561188</v>
+        <v>51.36259813742824</v>
       </c>
       <c r="G32">
-        <v>293.4598932525296</v>
+        <v>278.7283610148555</v>
       </c>
       <c r="H32">
-        <v>1821.015324569864</v>
+        <v>1843.55341282388</v>
       </c>
       <c r="I32">
-        <v>-201.6646905891758</v>
+        <v>-216.0803942563477</v>
       </c>
       <c r="J32">
-        <v>517.201384712827</v>
+        <v>520.2058054327276</v>
       </c>
       <c r="K32">
-        <v>2489.853277163046</v>
+        <v>2502.984152489251</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.25801605820858</v>
+        <v>48.4477493077817</v>
       </c>
       <c r="G33">
-        <v>298.2988708834947</v>
+        <v>283.5661402195057</v>
       </c>
       <c r="H33">
-        <v>1724.890637927711</v>
+        <v>1815.141077252548</v>
       </c>
       <c r="I33">
-        <v>-147.8687060191601</v>
+        <v>-144.8269845362187</v>
       </c>
       <c r="J33">
-        <v>498.7018316978935</v>
+        <v>500.8345076760995</v>
       </c>
       <c r="K33">
-        <v>2488.498559892287</v>
+        <v>2488.763502546207</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.93538015460079</v>
+        <v>48.57646512723277</v>
       </c>
       <c r="G34">
-        <v>311.7213674845831</v>
+        <v>309.0051273135975</v>
       </c>
       <c r="H34">
-        <v>1786.188811396033</v>
+        <v>1790.274773851676</v>
       </c>
       <c r="I34">
-        <v>-86.42452997032382</v>
+        <v>-80.16956693939787</v>
       </c>
       <c r="J34">
-        <v>443.0403855501649</v>
+        <v>459.9600456878978</v>
       </c>
       <c r="K34">
-        <v>2235.708661085199</v>
+        <v>2210.94991054148</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.06581724063677</v>
+        <v>49.12975573321665</v>
       </c>
       <c r="G35">
-        <v>320.0220384055042</v>
+        <v>341.4011886555454</v>
       </c>
       <c r="H35">
-        <v>1809.627524435219</v>
+        <v>1816.994795289651</v>
       </c>
       <c r="I35">
-        <v>-17.9682771635441</v>
+        <v>-19.04719915165612</v>
       </c>
       <c r="J35">
-        <v>397.6849960313723</v>
+        <v>411.1310031826812</v>
       </c>
       <c r="K35">
-        <v>1970.20731212821</v>
+        <v>1976.34429164164</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.15043423381909</v>
+        <v>49.01258847449637</v>
       </c>
       <c r="G36">
-        <v>342.0564492590956</v>
+        <v>330.5663183021938</v>
       </c>
       <c r="H36">
-        <v>1743.06845063327</v>
+        <v>1758.56730968901</v>
       </c>
       <c r="I36">
-        <v>47.29509445074569</v>
+        <v>49.14995724136563</v>
       </c>
       <c r="J36">
-        <v>354.0122018651635</v>
+        <v>361.766509015428</v>
       </c>
       <c r="K36">
-        <v>1879.460952818162</v>
+        <v>1758.53847664491</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.81935705612023</v>
+        <v>44.83742628764033</v>
       </c>
       <c r="G37">
-        <v>379.0152213521951</v>
+        <v>352.4893130578046</v>
       </c>
       <c r="H37">
-        <v>1812.118811909354</v>
+        <v>1754.758774730401</v>
       </c>
       <c r="I37">
-        <v>110.3407290615489</v>
+        <v>112.4758931063396</v>
       </c>
       <c r="J37">
-        <v>307.017174402744</v>
+        <v>311.8659864936853</v>
       </c>
       <c r="K37">
-        <v>1689.384534249531</v>
+        <v>1643.847694458835</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.10562399979273</v>
+        <v>44.49061405120609</v>
       </c>
       <c r="G38">
-        <v>379.6007330381109</v>
+        <v>368.4067818696406</v>
       </c>
       <c r="H38">
-        <v>1766.136172484064</v>
+        <v>1820.283382379557</v>
       </c>
       <c r="I38">
-        <v>192.4616569846355</v>
+        <v>186.9199016352055</v>
       </c>
       <c r="J38">
-        <v>259.4637996233521</v>
+        <v>240.8203746322999</v>
       </c>
       <c r="K38">
-        <v>1363.21344495289</v>
+        <v>1326.292464448679</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.12410621924645</v>
+        <v>43.1051093782113</v>
       </c>
       <c r="G39">
-        <v>410.7321521175784</v>
+        <v>398.2511544825844</v>
       </c>
       <c r="H39">
-        <v>1887.676445014564</v>
+        <v>1905.683614438039</v>
       </c>
       <c r="I39">
-        <v>245.3368254151181</v>
+        <v>262.9125688950189</v>
       </c>
       <c r="J39">
-        <v>201.5494903426283</v>
+        <v>203.7054681160547</v>
       </c>
       <c r="K39">
-        <v>1110.585359582589</v>
+        <v>1149.885805325</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.03815992921597</v>
+        <v>46.08029959632938</v>
       </c>
       <c r="G40">
-        <v>427.1150756598118</v>
+        <v>421.3157243537453</v>
       </c>
       <c r="H40">
-        <v>1852.278168061226</v>
+        <v>1870.381311781118</v>
       </c>
       <c r="I40">
-        <v>333.8872060106564</v>
+        <v>333.1760651583029</v>
       </c>
       <c r="J40">
-        <v>145.5564474957145</v>
+        <v>156.0792792348941</v>
       </c>
       <c r="K40">
-        <v>855.6612728027844</v>
+        <v>932.336836374175</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.60015036011868</v>
+        <v>44.02021150314649</v>
       </c>
       <c r="G41">
-        <v>434.8220319144734</v>
+        <v>449.2155397954872</v>
       </c>
       <c r="H41">
-        <v>1844.844610403117</v>
+        <v>1916.281115263685</v>
       </c>
       <c r="I41">
-        <v>398.3995300445272</v>
+        <v>400.2560910259548</v>
       </c>
       <c r="J41">
-        <v>103.9724988194535</v>
+        <v>101.9507994970709</v>
       </c>
       <c r="K41">
-        <v>616.3832399586407</v>
+        <v>631.6648882801718</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.75409608952007</v>
+        <v>42.59822364379355</v>
       </c>
       <c r="G42">
-        <v>437.2808784401133</v>
+        <v>425.3120717539341</v>
       </c>
       <c r="H42">
-        <v>1840.981005066497</v>
+        <v>1943.816928725582</v>
       </c>
       <c r="I42">
-        <v>472.3664567560158</v>
+        <v>462.4106775672378</v>
       </c>
       <c r="J42">
-        <v>52.13864072997968</v>
+        <v>56.29947627582055</v>
       </c>
       <c r="K42">
-        <v>348.3351692758571</v>
+        <v>329.4088469357479</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.45341980338548</v>
+        <v>42.77072473743191</v>
       </c>
       <c r="G43">
-        <v>451.9740321787486</v>
+        <v>480.0073173667926</v>
       </c>
       <c r="H43">
-        <v>1911.668006496719</v>
+        <v>1811.852504289109</v>
       </c>
       <c r="I43">
-        <v>532.9977016801664</v>
+        <v>545.1419803076371</v>
       </c>
       <c r="J43">
-        <v>5.117624550616348</v>
+        <v>5.220859454966687</v>
       </c>
       <c r="K43">
-        <v>33.63199556366763</v>
+        <v>33.93345803298156</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.5301492800385</v>
+        <v>42.88206549548446</v>
       </c>
       <c r="G44">
-        <v>473.7314037833432</v>
+        <v>460.2006388419329</v>
       </c>
       <c r="H44">
-        <v>1948.547779186757</v>
+        <v>2001.581571705727</v>
       </c>
       <c r="I44">
-        <v>622.3125730283274</v>
+        <v>652.3321363176531</v>
       </c>
       <c r="J44">
-        <v>-45.03305806968465</v>
+        <v>-44.31110707441616</v>
       </c>
       <c r="K44">
-        <v>-295.217987310432</v>
+        <v>-281.5578547311846</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.24368791991118</v>
+        <v>42.92736137440925</v>
       </c>
       <c r="G45">
-        <v>505.6260270644037</v>
+        <v>509.0409519236258</v>
       </c>
       <c r="H45">
-        <v>1915.765202495075</v>
+        <v>1997.617757628544</v>
       </c>
       <c r="I45">
-        <v>691.2450251595043</v>
+        <v>725.5004781519257</v>
       </c>
       <c r="J45">
-        <v>-92.18224198830157</v>
+        <v>-90.3511000223864</v>
       </c>
       <c r="K45">
-        <v>-644.3966547283311</v>
+        <v>-590.400160534499</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.18214867852127</v>
+        <v>38.50843715819597</v>
       </c>
       <c r="G46">
-        <v>488.3605807018164</v>
+        <v>493.5949965458476</v>
       </c>
       <c r="H46">
-        <v>1837.787195894536</v>
+        <v>1854.567158204595</v>
       </c>
       <c r="I46">
-        <v>784.2814618543732</v>
+        <v>795.8649088954658</v>
       </c>
       <c r="J46">
-        <v>-146.536891774663</v>
+        <v>-135.2122295638936</v>
       </c>
       <c r="K46">
-        <v>-953.060475199192</v>
+        <v>-1011.713380986982</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.73979374575516</v>
+        <v>39.44610055263318</v>
       </c>
       <c r="G47">
-        <v>527.6999212756104</v>
+        <v>549.4659493102702</v>
       </c>
       <c r="H47">
-        <v>2000.664902256975</v>
+        <v>1915.493940264529</v>
       </c>
       <c r="I47">
-        <v>913.7812452531059</v>
+        <v>877.0746009811118</v>
       </c>
       <c r="J47">
-        <v>-180.5529529185275</v>
+        <v>-195.1470202201709</v>
       </c>
       <c r="K47">
-        <v>-1263.44415050389</v>
+        <v>-1293.794695160934</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.39785279032873</v>
+        <v>39.02762422639037</v>
       </c>
       <c r="G48">
-        <v>533.1924525782922</v>
+        <v>534.5111545550558</v>
       </c>
       <c r="H48">
-        <v>1893.242322496847</v>
+        <v>1923.81942206374</v>
       </c>
       <c r="I48">
-        <v>992.6465232190179</v>
+        <v>960.8238442818067</v>
       </c>
       <c r="J48">
-        <v>-226.2846315635637</v>
+        <v>-230.5362758277585</v>
       </c>
       <c r="K48">
-        <v>-1628.596897350102</v>
+        <v>-1664.380826767173</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.63162197460008</v>
+        <v>38.9971834427886</v>
       </c>
       <c r="G49">
-        <v>568.8594069504743</v>
+        <v>553.9790470824789</v>
       </c>
       <c r="H49">
-        <v>2036.614032108561</v>
+        <v>1871.313598493734</v>
       </c>
       <c r="I49">
-        <v>1121.544367086753</v>
+        <v>1048.543221659762</v>
       </c>
       <c r="J49">
-        <v>-280.8910930808212</v>
+        <v>-294.9000787355885</v>
       </c>
       <c r="K49">
-        <v>-2163.847935118788</v>
+        <v>-2020.207007456381</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.09717722850679</v>
+        <v>37.35696627756958</v>
       </c>
       <c r="G50">
-        <v>601.5511804394815</v>
+        <v>588.9864569461395</v>
       </c>
       <c r="H50">
-        <v>2021.818627123935</v>
+        <v>2032.778873218798</v>
       </c>
       <c r="I50">
-        <v>1158.913050468202</v>
+        <v>1176.544911916719</v>
       </c>
       <c r="J50">
-        <v>-347.4359966573717</v>
+        <v>-337.4171206098036</v>
       </c>
       <c r="K50">
-        <v>-2562.054909882111</v>
+        <v>-2456.038083609721</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.88498601280855</v>
+        <v>39.11179153336504</v>
       </c>
       <c r="G51">
-        <v>611.1198295056735</v>
+        <v>617.1413768773891</v>
       </c>
       <c r="H51">
-        <v>1913.583509093035</v>
+        <v>2003.989060655227</v>
       </c>
       <c r="I51">
-        <v>1242.524236770724</v>
+        <v>1286.120453730865</v>
       </c>
       <c r="J51">
-        <v>-395.2990923098358</v>
+        <v>-367.851960387831</v>
       </c>
       <c r="K51">
-        <v>-2946.420162081459</v>
+        <v>-2971.100651945644</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.93015817691941</v>
+        <v>37.66481307599442</v>
       </c>
       <c r="G52">
-        <v>626.095386822539</v>
+        <v>580.0880568003867</v>
       </c>
       <c r="H52">
-        <v>1918.814360463316</v>
+        <v>2003.919482013928</v>
       </c>
       <c r="I52">
-        <v>1405.831722898731</v>
+        <v>1321.639297833399</v>
       </c>
       <c r="J52">
-        <v>-434.9094670050062</v>
+        <v>-436.5887035558791</v>
       </c>
       <c r="K52">
-        <v>-3216.659666245563</v>
+        <v>-3287.956819317739</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.24575855761493</v>
+        <v>36.56793922130995</v>
       </c>
       <c r="G53">
-        <v>638.1284849088287</v>
+        <v>647.3334985464169</v>
       </c>
       <c r="H53">
-        <v>2066.330855420601</v>
+        <v>1900.604233760923</v>
       </c>
       <c r="I53">
-        <v>1431.676279478675</v>
+        <v>1479.684668125804</v>
       </c>
       <c r="J53">
-        <v>-487.8343348959395</v>
+        <v>-482.488523002295</v>
       </c>
       <c r="K53">
-        <v>-3672.937956041732</v>
+        <v>-3881.243748576853</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.90419726845148</v>
+        <v>36.7538215579623</v>
       </c>
       <c r="G54">
-        <v>653.8526103482508</v>
+        <v>652.5423300228869</v>
       </c>
       <c r="H54">
-        <v>1918.489726319611</v>
+        <v>1995.863906279269</v>
       </c>
       <c r="I54">
-        <v>1593.416001029111</v>
+        <v>1504.107812771061</v>
       </c>
       <c r="J54">
-        <v>-545.6749556301187</v>
+        <v>-520.216027153112</v>
       </c>
       <c r="K54">
-        <v>-4189.309362084937</v>
+        <v>-4077.695321295307</v>
       </c>
     </row>
   </sheetData>
